--- a/Todo(Cloud).xlsx
+++ b/Todo(Cloud).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tohy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\s5\Cloud\test\Tomobilina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D082FC4-DF96-495E-AA81-844A0AF85430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A5A25-55EE-4C89-9DBF-A0696E1D5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{746331DE-0D53-410F-9566-EBB684BC7470}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>Catégorie</t>
   </si>
@@ -148,12 +148,6 @@
   </si>
   <si>
     <t>List User/Mois</t>
-  </si>
-  <si>
-    <t>Commission du mois</t>
-  </si>
-  <si>
-    <t>Meilleur Vente du Mois(rapport Commission/prix)</t>
   </si>
 </sst>
 </file>
@@ -241,7 +235,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,8 +244,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C7BAA8-B2FE-49A1-A755-A27EA299098F}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1240,7 @@
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C30" t="s">
@@ -1272,7 +1264,7 @@
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C31" t="s">
@@ -1293,52 +1285,12 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32">
-        <v>20</v>
-      </c>
-      <c r="F32">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33">
-        <v>20</v>
-      </c>
-      <c r="F33">
-        <v>16</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
+      <c r="B32" s="5"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
